--- a/state_results/Rivers/MakakahiatusEketahunaSTP_dd8501cb18.xlsx
+++ b/state_results/Rivers/MakakahiatusEketahunaSTP_dd8501cb18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U188"/>
+  <dimension ref="A1:U205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.00292</v>
+        <v>0.00307</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0048111699460448</v>
+        <v>0.0048871116411852</v>
       </c>
       <c r="H3" t="n">
         <v>0.015</v>
@@ -662,7 +662,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0.00247</v>
+        <v>0.00262</v>
       </c>
       <c r="M3" t="n">
         <v>0.008999999999999999</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.00292</v>
+        <v>0.00307</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0048111699460448</v>
+        <v>0.0048871116411852</v>
       </c>
       <c r="H4" t="n">
         <v>0.015</v>
@@ -743,7 +743,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.00247</v>
+        <v>0.00262</v>
       </c>
       <c r="M4" t="n">
         <v>0.008999999999999999</v>
@@ -1153,13 +1153,13 @@
         <v>0.00339</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0064989809546333</v>
+        <v>0.0065108738267683</v>
       </c>
       <c r="H9" t="n">
         <v>0.091592816866241</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01827</v>
+        <v>0.01849</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1234,13 +1234,13 @@
         <v>0.00339</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0064989809546333</v>
+        <v>0.0065108738267683</v>
       </c>
       <c r="H10" t="n">
         <v>0.091592816866241</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01827</v>
+        <v>0.01849</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1315,7 +1315,7 @@
         <v>0.363</v>
       </c>
       <c r="G11" t="n">
-        <v>0.327076037460349</v>
+        <v>0.327077924826104</v>
       </c>
       <c r="H11" t="n">
         <v>0.743</v>
@@ -1396,7 +1396,7 @@
         <v>0.363</v>
       </c>
       <c r="G12" t="n">
-        <v>0.327076037460349</v>
+        <v>0.327077924826104</v>
       </c>
       <c r="H12" t="n">
         <v>0.743</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.2925</v>
+        <v>0.29225</v>
       </c>
       <c r="G13" t="n">
-        <v>0.328829625322726</v>
+        <v>0.328809612391202</v>
       </c>
       <c r="H13" t="n">
         <v>1.008</v>
@@ -1487,10 +1487,10 @@
         <v>0.0535</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6244</v>
+        <v>0.62455</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7465000000000001</v>
+        <v>0.746</v>
       </c>
       <c r="O13" t="n">
         <v>1828591</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.2925</v>
+        <v>0.29225</v>
       </c>
       <c r="G14" t="n">
-        <v>0.328829625322726</v>
+        <v>0.328809612391202</v>
       </c>
       <c r="H14" t="n">
         <v>1.008</v>
@@ -1564,10 +1564,10 @@
         <v>0.0535</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6244</v>
+        <v>0.62455</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7465000000000001</v>
+        <v>0.746</v>
       </c>
       <c r="O14" t="n">
         <v>1828591</v>
@@ -1781,7 +1781,7 @@
         <v>0.015</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0239370472903689</v>
+        <v>0.0239339136465989</v>
       </c>
       <c r="H17" t="n">
         <v>0.308</v>
@@ -1858,7 +1858,7 @@
         <v>0.015</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0239370472903689</v>
+        <v>0.0239339136465989</v>
       </c>
       <c r="H18" t="n">
         <v>0.308</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.00357</v>
+        <v>0.00365</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0049622397033344</v>
+        <v>0.0050239174203761</v>
       </c>
       <c r="H20" t="n">
         <v>0.015</v>
@@ -2031,7 +2031,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.00295</v>
+        <v>0.003</v>
       </c>
       <c r="M20" t="n">
         <v>0.008</v>
@@ -2098,10 +2098,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.00357</v>
+        <v>0.00365</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0049622397033344</v>
+        <v>0.0050239174203761</v>
       </c>
       <c r="H21" t="n">
         <v>0.015</v>
@@ -2112,7 +2112,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0.00295</v>
+        <v>0.003</v>
       </c>
       <c r="M21" t="n">
         <v>0.008</v>
@@ -2522,13 +2522,13 @@
         <v>0.00382</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0069391466014524</v>
+        <v>0.0069507454141575</v>
       </c>
       <c r="H26" t="n">
         <v>0.091592816866241</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01827</v>
+        <v>0.01849</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2603,13 +2603,13 @@
         <v>0.00382</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0069391466014524</v>
+        <v>0.0069507454141575</v>
       </c>
       <c r="H27" t="n">
         <v>0.091592816866241</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01827</v>
+        <v>0.01849</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -2684,7 +2684,7 @@
         <v>0.236</v>
       </c>
       <c r="G28" t="n">
-        <v>0.278836350717486</v>
+        <v>0.278837898357405</v>
       </c>
       <c r="H28" t="n">
         <v>0.743</v>
@@ -2765,7 +2765,7 @@
         <v>0.236</v>
       </c>
       <c r="G29" t="n">
-        <v>0.278836350717486</v>
+        <v>0.278837898357405</v>
       </c>
       <c r="H29" t="n">
         <v>0.743</v>
@@ -2842,13 +2842,13 @@
         <v>0.2635</v>
       </c>
       <c r="G30" t="n">
-        <v>0.302166666666667</v>
+        <v>0.302155</v>
       </c>
       <c r="H30" t="n">
         <v>1.008</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7524999999999999</v>
+        <v>0.75225</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2919,13 +2919,13 @@
         <v>0.2635</v>
       </c>
       <c r="G31" t="n">
-        <v>0.302166666666667</v>
+        <v>0.302155</v>
       </c>
       <c r="H31" t="n">
         <v>1.008</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7524999999999999</v>
+        <v>0.75225</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -3150,7 +3150,7 @@
         <v>0.016</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0245203806237022</v>
+        <v>0.0245172469799322</v>
       </c>
       <c r="H34" t="n">
         <v>0.308</v>
@@ -3227,7 +3227,7 @@
         <v>0.016</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0245203806237022</v>
+        <v>0.0245172469799322</v>
       </c>
       <c r="H35" t="n">
         <v>0.308</v>
@@ -3389,7 +3389,7 @@
         <v>0.004</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0049808114811787</v>
+        <v>0.0050329982676807</v>
       </c>
       <c r="H37" t="n">
         <v>0.015</v>
@@ -3470,7 +3470,7 @@
         <v>0.004</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0049808114811787</v>
+        <v>0.0050329982676807</v>
       </c>
       <c r="H38" t="n">
         <v>0.015</v>
@@ -3891,13 +3891,13 @@
         <v>0.00382</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0071459676168226</v>
+        <v>0.0071561574637646</v>
       </c>
       <c r="H43" t="n">
         <v>0.091592816866241</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0225</v>
+        <v>0.02272</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -3972,13 +3972,13 @@
         <v>0.00382</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0071459676168226</v>
+        <v>0.0071561574637646</v>
       </c>
       <c r="H44" t="n">
         <v>0.091592816866241</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0225</v>
+        <v>0.02272</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -4053,7 +4053,7 @@
         <v>0.236</v>
       </c>
       <c r="G45" t="n">
-        <v>0.275996958931238</v>
+        <v>0.275998248631171</v>
       </c>
       <c r="H45" t="n">
         <v>0.743</v>
@@ -4134,7 +4134,7 @@
         <v>0.236</v>
       </c>
       <c r="G46" t="n">
-        <v>0.275996958931238</v>
+        <v>0.275998248631171</v>
       </c>
       <c r="H46" t="n">
         <v>0.743</v>
@@ -4211,13 +4211,13 @@
         <v>0.249</v>
       </c>
       <c r="G47" t="n">
-        <v>0.287766666666667</v>
+        <v>0.287763333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0.757</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7</v>
+        <v>0.7002</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -4225,7 +4225,7 @@
         <v>0.039</v>
       </c>
       <c r="M47" t="n">
-        <v>0.5552</v>
+        <v>0.5553399999999999</v>
       </c>
       <c r="N47" t="n">
         <v>0.6414</v>
@@ -4288,13 +4288,13 @@
         <v>0.249</v>
       </c>
       <c r="G48" t="n">
-        <v>0.287766666666667</v>
+        <v>0.287763333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0.757</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7</v>
+        <v>0.7002</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4302,7 +4302,7 @@
         <v>0.039</v>
       </c>
       <c r="M48" t="n">
-        <v>0.5552</v>
+        <v>0.5553399999999999</v>
       </c>
       <c r="N48" t="n">
         <v>0.6414</v>
@@ -4519,7 +4519,7 @@
         <v>0.0145</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0195870472903689</v>
+        <v>0.0195839136465989</v>
       </c>
       <c r="H51" t="n">
         <v>0.17</v>
@@ -4596,7 +4596,7 @@
         <v>0.0145</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0195870472903689</v>
+        <v>0.0195839136465989</v>
       </c>
       <c r="H52" t="n">
         <v>0.17</v>
@@ -4758,7 +4758,7 @@
         <v>0.004</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0047673725263812</v>
+        <v>0.0048198071938014</v>
       </c>
       <c r="H54" t="n">
         <v>0.011</v>
@@ -4769,7 +4769,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0.00362</v>
+        <v>0.0037</v>
       </c>
       <c r="M54" t="n">
         <v>0.007</v>
@@ -4839,7 +4839,7 @@
         <v>0.004</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0047673725263812</v>
+        <v>0.0048198071938014</v>
       </c>
       <c r="H55" t="n">
         <v>0.011</v>
@@ -4850,7 +4850,7 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.00362</v>
+        <v>0.0037</v>
       </c>
       <c r="M55" t="n">
         <v>0.007</v>
@@ -5260,7 +5260,7 @@
         <v>0.00413</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0075770984833799</v>
+        <v>0.0075761240621498</v>
       </c>
       <c r="H60" t="n">
         <v>0.091592816866241</v>
@@ -5341,7 +5341,7 @@
         <v>0.00413</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0075770984833799</v>
+        <v>0.0075761240621498</v>
       </c>
       <c r="H61" t="n">
         <v>0.091592816866241</v>
@@ -5422,7 +5422,7 @@
         <v>0.19605</v>
       </c>
       <c r="G62" t="n">
-        <v>0.246245983746632</v>
+        <v>0.246250209157184</v>
       </c>
       <c r="H62" t="n">
         <v>0.743</v>
@@ -5503,7 +5503,7 @@
         <v>0.19605</v>
       </c>
       <c r="G63" t="n">
-        <v>0.246245983746632</v>
+        <v>0.246250209157184</v>
       </c>
       <c r="H63" t="n">
         <v>0.743</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.219</v>
+        <v>0.2191</v>
       </c>
       <c r="G64" t="n">
-        <v>0.260155990743714</v>
+        <v>0.260134191321514</v>
       </c>
       <c r="H64" t="n">
         <v>0.757</v>
@@ -5594,10 +5594,10 @@
         <v>0.02</v>
       </c>
       <c r="M64" t="n">
-        <v>0.5123</v>
+        <v>0.51202</v>
       </c>
       <c r="N64" t="n">
-        <v>0.5662</v>
+        <v>0.56648</v>
       </c>
       <c r="O64" t="n">
         <v>1828591</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.219</v>
+        <v>0.2191</v>
       </c>
       <c r="G65" t="n">
-        <v>0.260155990743714</v>
+        <v>0.260134191321514</v>
       </c>
       <c r="H65" t="n">
         <v>0.757</v>
@@ -5671,10 +5671,10 @@
         <v>0.02</v>
       </c>
       <c r="M65" t="n">
-        <v>0.5123</v>
+        <v>0.51202</v>
       </c>
       <c r="N65" t="n">
-        <v>0.5662</v>
+        <v>0.56648</v>
       </c>
       <c r="O65" t="n">
         <v>1828591</v>
@@ -5888,7 +5888,7 @@
         <v>0.014</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0197703806237022</v>
+        <v>0.0197672469799322</v>
       </c>
       <c r="H68" t="n">
         <v>0.17</v>
@@ -5965,7 +5965,7 @@
         <v>0.014</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0197703806237022</v>
+        <v>0.0197672469799322</v>
       </c>
       <c r="H69" t="n">
         <v>0.17</v>
@@ -6127,7 +6127,7 @@
         <v>0.005</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0051124253763757</v>
+        <v>0.0051600478382111</v>
       </c>
       <c r="H71" t="n">
         <v>0.011</v>
@@ -6208,7 +6208,7 @@
         <v>0.005</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0051124253763757</v>
+        <v>0.0051600478382111</v>
       </c>
       <c r="H72" t="n">
         <v>0.011</v>
@@ -6289,10 +6289,10 @@
         <v>153</v>
       </c>
       <c r="G73" t="n">
-        <v>603.419470475627</v>
+        <v>548.773544026175</v>
       </c>
       <c r="H73" t="n">
-        <v>10589.1682285376</v>
+        <v>7310.41264157052</v>
       </c>
       <c r="I73" t="n">
         <v>3427</v>
@@ -6374,10 +6374,10 @@
         <v>153</v>
       </c>
       <c r="G74" t="n">
-        <v>603.419470475627</v>
+        <v>548.773544026175</v>
       </c>
       <c r="H74" t="n">
-        <v>10589.1682285376</v>
+        <v>7310.41264157052</v>
       </c>
       <c r="I74" t="n">
         <v>3427</v>
@@ -6459,10 +6459,10 @@
         <v>153</v>
       </c>
       <c r="G75" t="n">
-        <v>603.419470475627</v>
+        <v>548.773544026175</v>
       </c>
       <c r="H75" t="n">
-        <v>10589.1682285376</v>
+        <v>7310.41264157052</v>
       </c>
       <c r="I75" t="n">
         <v>3427</v>
@@ -6544,10 +6544,10 @@
         <v>153</v>
       </c>
       <c r="G76" t="n">
-        <v>603.419470475627</v>
+        <v>548.773544026175</v>
       </c>
       <c r="H76" t="n">
-        <v>10589.1682285376</v>
+        <v>7310.41264157052</v>
       </c>
       <c r="I76" t="n">
         <v>3427</v>
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00139</v>
+        <v>0.00137</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0043708741570679</v>
+        <v>0.004366730952641</v>
       </c>
       <c r="H77" t="n">
         <v>0.0313998204699289</v>
@@ -6640,7 +6640,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00115</v>
+        <v>0.00114</v>
       </c>
       <c r="M77" t="n">
         <v>0.0078</v>
@@ -6707,10 +6707,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.00139</v>
+        <v>0.00137</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0043708741570679</v>
+        <v>0.004366730952641</v>
       </c>
       <c r="H78" t="n">
         <v>0.0313998204699289</v>
@@ -6721,7 +6721,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00115</v>
+        <v>0.00114</v>
       </c>
       <c r="M78" t="n">
         <v>0.0078</v>
@@ -6791,7 +6791,7 @@
         <v>0.19</v>
       </c>
       <c r="G79" t="n">
-        <v>0.239063126182347</v>
+        <v>0.2390740778485</v>
       </c>
       <c r="H79" t="n">
         <v>0.743</v>
@@ -6802,7 +6802,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.00601</v>
+        <v>0.00608</v>
       </c>
       <c r="M79" t="n">
         <v>0.5036</v>
@@ -6872,7 +6872,7 @@
         <v>0.19</v>
       </c>
       <c r="G80" t="n">
-        <v>0.239063126182347</v>
+        <v>0.2390740778485</v>
       </c>
       <c r="H80" t="n">
         <v>0.743</v>
@@ -6883,7 +6883,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.00601</v>
+        <v>0.00608</v>
       </c>
       <c r="M80" t="n">
         <v>0.5036</v>
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.215</v>
+        <v>0.21495</v>
       </c>
       <c r="G81" t="n">
-        <v>0.251100250225692</v>
+        <v>0.251088533555425</v>
       </c>
       <c r="H81" t="n">
         <v>0.757</v>
@@ -6960,13 +6960,13 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.0183</v>
+        <v>0.01831</v>
       </c>
       <c r="M81" t="n">
-        <v>0.5132</v>
+        <v>0.51292</v>
       </c>
       <c r="N81" t="n">
-        <v>0.5662</v>
+        <v>0.56648</v>
       </c>
       <c r="O81" t="n">
         <v>1828591</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.215</v>
+        <v>0.21495</v>
       </c>
       <c r="G82" t="n">
-        <v>0.251100250225692</v>
+        <v>0.251088533555425</v>
       </c>
       <c r="H82" t="n">
         <v>0.757</v>
@@ -7037,13 +7037,13 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.0183</v>
+        <v>0.01831</v>
       </c>
       <c r="M82" t="n">
-        <v>0.5132</v>
+        <v>0.51292</v>
       </c>
       <c r="N82" t="n">
-        <v>0.5662</v>
+        <v>0.56648</v>
       </c>
       <c r="O82" t="n">
         <v>1828591</v>
@@ -7257,7 +7257,7 @@
         <v>0.014</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0175456359675182</v>
+        <v>0.0175441441328459</v>
       </c>
       <c r="H85" t="n">
         <v>0.08599999999999999</v>
@@ -7334,7 +7334,7 @@
         <v>0.014</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0175456359675182</v>
+        <v>0.0175441441328459</v>
       </c>
       <c r="H86" t="n">
         <v>0.08599999999999999</v>
@@ -7496,7 +7496,7 @@
         <v>0.005</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0054747189671125</v>
+        <v>0.0055146016212318</v>
       </c>
       <c r="H88" t="n">
         <v>0.021</v>
@@ -7577,7 +7577,7 @@
         <v>0.005</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0054747189671125</v>
+        <v>0.0055146016212318</v>
       </c>
       <c r="H89" t="n">
         <v>0.021</v>
@@ -7658,10 +7658,10 @@
         <v>169</v>
       </c>
       <c r="G90" t="n">
-        <v>553.136137142294</v>
+        <v>498.490210692842</v>
       </c>
       <c r="H90" t="n">
-        <v>10589.1682285376</v>
+        <v>7310.41264157052</v>
       </c>
       <c r="I90" t="n">
         <v>1750</v>
@@ -7743,10 +7743,10 @@
         <v>169</v>
       </c>
       <c r="G91" t="n">
-        <v>553.136137142294</v>
+        <v>498.490210692842</v>
       </c>
       <c r="H91" t="n">
-        <v>10589.1682285376</v>
+        <v>7310.41264157052</v>
       </c>
       <c r="I91" t="n">
         <v>1750</v>
@@ -7828,10 +7828,10 @@
         <v>169</v>
       </c>
       <c r="G92" t="n">
-        <v>553.136137142294</v>
+        <v>498.490210692842</v>
       </c>
       <c r="H92" t="n">
-        <v>10589.1682285376</v>
+        <v>7310.41264157052</v>
       </c>
       <c r="I92" t="n">
         <v>1750</v>
@@ -7913,10 +7913,10 @@
         <v>169</v>
       </c>
       <c r="G93" t="n">
-        <v>553.136137142294</v>
+        <v>498.490210692842</v>
       </c>
       <c r="H93" t="n">
-        <v>10589.1682285376</v>
+        <v>7310.41264157052</v>
       </c>
       <c r="I93" t="n">
         <v>1750</v>
@@ -7995,10 +7995,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.0015</v>
+        <v>0.00148</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0035788707568152</v>
+        <v>0.0035650296622053</v>
       </c>
       <c r="H94" t="n">
         <v>0.0313998204699289</v>
@@ -8009,13 +8009,13 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.00115</v>
+        <v>0.00114</v>
       </c>
       <c r="M94" t="n">
         <v>0.00492</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01091</v>
+        <v>0.01085</v>
       </c>
       <c r="O94" t="n">
         <v>1828591</v>
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.0015</v>
+        <v>0.00148</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0035788707568152</v>
+        <v>0.0035650296622053</v>
       </c>
       <c r="H95" t="n">
         <v>0.0313998204699289</v>
@@ -8090,13 +8090,13 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.00115</v>
+        <v>0.00114</v>
       </c>
       <c r="M95" t="n">
         <v>0.00492</v>
       </c>
       <c r="N95" t="n">
-        <v>0.01091</v>
+        <v>0.01085</v>
       </c>
       <c r="O95" t="n">
         <v>1828591</v>
@@ -8160,7 +8160,7 @@
         <v>0.19</v>
       </c>
       <c r="G96" t="n">
-        <v>0.238479792849014</v>
+        <v>0.238490744515167</v>
       </c>
       <c r="H96" t="n">
         <v>0.7224</v>
@@ -8171,7 +8171,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.00601</v>
+        <v>0.00608</v>
       </c>
       <c r="M96" t="n">
         <v>0.5085</v>
@@ -8241,7 +8241,7 @@
         <v>0.19</v>
       </c>
       <c r="G97" t="n">
-        <v>0.238479792849014</v>
+        <v>0.238490744515167</v>
       </c>
       <c r="H97" t="n">
         <v>0.7224</v>
@@ -8252,7 +8252,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00601</v>
+        <v>0.00608</v>
       </c>
       <c r="M97" t="n">
         <v>0.5085</v>
@@ -8315,13 +8315,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.219</v>
+        <v>0.2191</v>
       </c>
       <c r="G98" t="n">
-        <v>0.249783583559026</v>
+        <v>0.249778533555425</v>
       </c>
       <c r="H98" t="n">
-        <v>0.731</v>
+        <v>0.7314000000000001</v>
       </c>
       <c r="I98" t="n">
         <v>0.63</v>
@@ -8329,13 +8329,13 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.0183</v>
+        <v>0.01831</v>
       </c>
       <c r="M98" t="n">
         <v>0.516</v>
       </c>
       <c r="N98" t="n">
-        <v>0.5662</v>
+        <v>0.56648</v>
       </c>
       <c r="O98" t="n">
         <v>1828591</v>
@@ -8392,13 +8392,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.219</v>
+        <v>0.2191</v>
       </c>
       <c r="G99" t="n">
-        <v>0.249783583559026</v>
+        <v>0.249778533555425</v>
       </c>
       <c r="H99" t="n">
-        <v>0.731</v>
+        <v>0.7314000000000001</v>
       </c>
       <c r="I99" t="n">
         <v>0.63</v>
@@ -8406,13 +8406,13 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.0183</v>
+        <v>0.01831</v>
       </c>
       <c r="M99" t="n">
         <v>0.516</v>
       </c>
       <c r="N99" t="n">
-        <v>0.5662</v>
+        <v>0.56648</v>
       </c>
       <c r="O99" t="n">
         <v>1828591</v>
@@ -8865,7 +8865,7 @@
         <v>0.005</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0063743392912119</v>
+        <v>0.0064237830176218</v>
       </c>
       <c r="H105" t="n">
         <v>0.047</v>
@@ -8946,7 +8946,7 @@
         <v>0.005</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0063743392912119</v>
+        <v>0.0064237830176218</v>
       </c>
       <c r="H106" t="n">
         <v>0.047</v>
@@ -9027,10 +9027,10 @@
         <v>225</v>
       </c>
       <c r="G107" t="n">
-        <v>835.37854587316</v>
+        <v>726.407605860369</v>
       </c>
       <c r="H107" t="n">
-        <v>11187.5445238519</v>
+        <v>7928.04371005164</v>
       </c>
       <c r="I107" t="n">
         <v>3977</v>
@@ -9112,10 +9112,10 @@
         <v>225</v>
       </c>
       <c r="G108" t="n">
-        <v>835.37854587316</v>
+        <v>726.407605860369</v>
       </c>
       <c r="H108" t="n">
-        <v>11187.5445238519</v>
+        <v>7928.04371005164</v>
       </c>
       <c r="I108" t="n">
         <v>3977</v>
@@ -9197,10 +9197,10 @@
         <v>225</v>
       </c>
       <c r="G109" t="n">
-        <v>835.37854587316</v>
+        <v>726.407605860369</v>
       </c>
       <c r="H109" t="n">
-        <v>11187.5445238519</v>
+        <v>7928.04371005164</v>
       </c>
       <c r="I109" t="n">
         <v>3977</v>
@@ -9282,10 +9282,10 @@
         <v>225</v>
       </c>
       <c r="G110" t="n">
-        <v>835.37854587316</v>
+        <v>726.407605860369</v>
       </c>
       <c r="H110" t="n">
-        <v>11187.5445238519</v>
+        <v>7928.04371005164</v>
       </c>
       <c r="I110" t="n">
         <v>3977</v>
@@ -9364,10 +9364,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.00178</v>
+        <v>0.00175</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0046820600133518</v>
+        <v>0.0046580503300352</v>
       </c>
       <c r="H111" t="n">
         <v>0.0477388325572529</v>
@@ -9378,10 +9378,10 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00223</v>
+        <v>0.00219</v>
       </c>
       <c r="M111" t="n">
-        <v>0.00413</v>
+        <v>0.00407</v>
       </c>
       <c r="N111" t="n">
         <v>0.01771</v>
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.00178</v>
+        <v>0.00175</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0046820600133518</v>
+        <v>0.0046580503300352</v>
       </c>
       <c r="H112" t="n">
         <v>0.0477388325572529</v>
@@ -9459,10 +9459,10 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00223</v>
+        <v>0.00219</v>
       </c>
       <c r="M112" t="n">
-        <v>0.00413</v>
+        <v>0.00407</v>
       </c>
       <c r="N112" t="n">
         <v>0.01771</v>
@@ -9529,7 +9529,7 @@
         <v>0.19005</v>
       </c>
       <c r="G113" t="n">
-        <v>0.239618126182347</v>
+        <v>0.2396290778485</v>
       </c>
       <c r="H113" t="n">
         <v>0.7224</v>
@@ -9610,7 +9610,7 @@
         <v>0.19005</v>
       </c>
       <c r="G114" t="n">
-        <v>0.239618126182347</v>
+        <v>0.2396290778485</v>
       </c>
       <c r="H114" t="n">
         <v>0.7224</v>
@@ -9684,13 +9684,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.2235</v>
+        <v>0.22345</v>
       </c>
       <c r="G115" t="n">
-        <v>0.252395820913114</v>
+        <v>0.25238118042829</v>
       </c>
       <c r="H115" t="n">
-        <v>0.731</v>
+        <v>0.7314000000000001</v>
       </c>
       <c r="I115" t="n">
         <v>0.63</v>
@@ -9701,10 +9701,10 @@
         <v>0.04</v>
       </c>
       <c r="M115" t="n">
-        <v>0.5012</v>
+        <v>0.5011100000000001</v>
       </c>
       <c r="N115" t="n">
-        <v>0.5662</v>
+        <v>0.56648</v>
       </c>
       <c r="O115" t="n">
         <v>1828591</v>
@@ -9761,13 +9761,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.2235</v>
+        <v>0.22345</v>
       </c>
       <c r="G116" t="n">
-        <v>0.252395820913114</v>
+        <v>0.25238118042829</v>
       </c>
       <c r="H116" t="n">
-        <v>0.731</v>
+        <v>0.7314000000000001</v>
       </c>
       <c r="I116" t="n">
         <v>0.63</v>
@@ -9778,10 +9778,10 @@
         <v>0.04</v>
       </c>
       <c r="M116" t="n">
-        <v>0.5012</v>
+        <v>0.5011100000000001</v>
       </c>
       <c r="N116" t="n">
-        <v>0.5662</v>
+        <v>0.56648</v>
       </c>
       <c r="O116" t="n">
         <v>1828591</v>
@@ -10234,7 +10234,7 @@
         <v>0.005</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0064885456135818</v>
+        <v>0.0065451685268569</v>
       </c>
       <c r="H122" t="n">
         <v>0.047</v>
@@ -10245,7 +10245,7 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>0.00467</v>
+        <v>0.00474</v>
       </c>
       <c r="M122" t="n">
         <v>0.007</v>
@@ -10315,7 +10315,7 @@
         <v>0.005</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0064885456135818</v>
+        <v>0.0065451685268569</v>
       </c>
       <c r="H123" t="n">
         <v>0.047</v>
@@ -10326,7 +10326,7 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.00467</v>
+        <v>0.00474</v>
       </c>
       <c r="M123" t="n">
         <v>0.007</v>
@@ -10396,10 +10396,10 @@
         <v>225</v>
       </c>
       <c r="G124" t="n">
-        <v>877.97854587316</v>
+        <v>769.007605860369</v>
       </c>
       <c r="H124" t="n">
-        <v>11187.5445238519</v>
+        <v>7928.04371005164</v>
       </c>
       <c r="I124" t="n">
         <v>4127</v>
@@ -10481,10 +10481,10 @@
         <v>225</v>
       </c>
       <c r="G125" t="n">
-        <v>877.97854587316</v>
+        <v>769.007605860369</v>
       </c>
       <c r="H125" t="n">
-        <v>11187.5445238519</v>
+        <v>7928.04371005164</v>
       </c>
       <c r="I125" t="n">
         <v>4127</v>
@@ -10566,10 +10566,10 @@
         <v>225</v>
       </c>
       <c r="G126" t="n">
-        <v>877.97854587316</v>
+        <v>769.007605860369</v>
       </c>
       <c r="H126" t="n">
-        <v>11187.5445238519</v>
+        <v>7928.04371005164</v>
       </c>
       <c r="I126" t="n">
         <v>4127</v>
@@ -10651,10 +10651,10 @@
         <v>225</v>
       </c>
       <c r="G127" t="n">
-        <v>877.97854587316</v>
+        <v>769.007605860369</v>
       </c>
       <c r="H127" t="n">
-        <v>11187.5445238519</v>
+        <v>7928.04371005164</v>
       </c>
       <c r="I127" t="n">
         <v>4127</v>
@@ -10733,10 +10733,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.00213</v>
+        <v>0.00209</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0052490200600326</v>
+        <v>0.0052101679286565</v>
       </c>
       <c r="H128" t="n">
         <v>0.0477388325572529</v>
@@ -10747,13 +10747,13 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00241</v>
+        <v>0.00237</v>
       </c>
       <c r="M128" t="n">
         <v>0.00753</v>
       </c>
       <c r="N128" t="n">
-        <v>0.01405</v>
+        <v>0.01367</v>
       </c>
       <c r="O128" t="n">
         <v>1828591</v>
@@ -10814,10 +10814,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.00213</v>
+        <v>0.00209</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0052490200600326</v>
+        <v>0.0052101679286565</v>
       </c>
       <c r="H129" t="n">
         <v>0.0477388325572529</v>
@@ -10828,13 +10828,13 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00241</v>
+        <v>0.00237</v>
       </c>
       <c r="M129" t="n">
         <v>0.00753</v>
       </c>
       <c r="N129" t="n">
-        <v>0.01405</v>
+        <v>0.01367</v>
       </c>
       <c r="O129" t="n">
         <v>1828591</v>
@@ -10898,7 +10898,7 @@
         <v>0.18795</v>
       </c>
       <c r="G130" t="n">
-        <v>0.234578861958155</v>
+        <v>0.234593069996378</v>
       </c>
       <c r="H130" t="n">
         <v>0.637</v>
@@ -10979,7 +10979,7 @@
         <v>0.18795</v>
       </c>
       <c r="G131" t="n">
-        <v>0.234578861958155</v>
+        <v>0.234593069996378</v>
       </c>
       <c r="H131" t="n">
         <v>0.637</v>
@@ -11056,7 +11056,7 @@
         <v>0.2</v>
       </c>
       <c r="G132" t="n">
-        <v>0.248048496137652</v>
+        <v>0.248043097546409</v>
       </c>
       <c r="H132" t="n">
         <v>0.66</v>
@@ -11070,7 +11070,7 @@
         <v>0.04</v>
       </c>
       <c r="M132" t="n">
-        <v>0.5018</v>
+        <v>0.50168</v>
       </c>
       <c r="N132" t="n">
         <v>0.5655</v>
@@ -11133,7 +11133,7 @@
         <v>0.2</v>
       </c>
       <c r="G133" t="n">
-        <v>0.248048496137652</v>
+        <v>0.248043097546409</v>
       </c>
       <c r="H133" t="n">
         <v>0.66</v>
@@ -11147,7 +11147,7 @@
         <v>0.04</v>
       </c>
       <c r="M133" t="n">
-        <v>0.5018</v>
+        <v>0.50168</v>
       </c>
       <c r="N133" t="n">
         <v>0.5655</v>
@@ -11600,10 +11600,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.00434</v>
+        <v>0.00448</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0061116392190155</v>
+        <v>0.00616156426954</v>
       </c>
       <c r="H139" t="n">
         <v>0.047</v>
@@ -11614,7 +11614,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.00423</v>
+        <v>0.00437</v>
       </c>
       <c r="M139" t="n">
         <v>0.007</v>
@@ -11681,10 +11681,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.00434</v>
+        <v>0.00448</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0061116392190155</v>
+        <v>0.00616156426954</v>
       </c>
       <c r="H140" t="n">
         <v>0.047</v>
@@ -11695,7 +11695,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.00423</v>
+        <v>0.00437</v>
       </c>
       <c r="M140" t="n">
         <v>0.007</v>
@@ -11765,10 +11765,10 @@
         <v>250</v>
       </c>
       <c r="G141" t="n">
-        <v>810.808690718467</v>
+        <v>699.990785620715</v>
       </c>
       <c r="H141" t="n">
-        <v>11187.5445238519</v>
+        <v>7928.04371005164</v>
       </c>
       <c r="I141" t="n">
         <v>2465</v>
@@ -11850,10 +11850,10 @@
         <v>250</v>
       </c>
       <c r="G142" t="n">
-        <v>810.808690718467</v>
+        <v>699.990785620715</v>
       </c>
       <c r="H142" t="n">
-        <v>11187.5445238519</v>
+        <v>7928.04371005164</v>
       </c>
       <c r="I142" t="n">
         <v>2465</v>
@@ -11935,10 +11935,10 @@
         <v>250</v>
       </c>
       <c r="G143" t="n">
-        <v>810.808690718467</v>
+        <v>699.990785620715</v>
       </c>
       <c r="H143" t="n">
-        <v>11187.5445238519</v>
+        <v>7928.04371005164</v>
       </c>
       <c r="I143" t="n">
         <v>2465</v>
@@ -12020,10 +12020,10 @@
         <v>250</v>
       </c>
       <c r="G144" t="n">
-        <v>810.808690718467</v>
+        <v>699.990785620715</v>
       </c>
       <c r="H144" t="n">
-        <v>11187.5445238519</v>
+        <v>7928.04371005164</v>
       </c>
       <c r="I144" t="n">
         <v>2465</v>
@@ -12102,21 +12102,21 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.00237</v>
+        <v>0.00233</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0048825149819628</v>
+        <v>0.0048422272129442</v>
       </c>
       <c r="H145" t="n">
         <v>0.0477388325572529</v>
       </c>
       <c r="I145" t="n">
-        <v>0.01343</v>
+        <v>0.01305</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.00324</v>
+        <v>0.00316</v>
       </c>
       <c r="M145" t="n">
         <v>0.00724</v>
@@ -12183,21 +12183,21 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.00237</v>
+        <v>0.00233</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0048825149819628</v>
+        <v>0.0048422272129442</v>
       </c>
       <c r="H146" t="n">
         <v>0.0477388325572529</v>
       </c>
       <c r="I146" t="n">
-        <v>0.01343</v>
+        <v>0.01305</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.00324</v>
+        <v>0.00316</v>
       </c>
       <c r="M146" t="n">
         <v>0.00724</v>
@@ -12267,7 +12267,7 @@
         <v>0.152</v>
       </c>
       <c r="G147" t="n">
-        <v>0.231333435469345</v>
+        <v>0.231343587294096</v>
       </c>
       <c r="H147" t="n">
         <v>0.657</v>
@@ -12348,7 +12348,7 @@
         <v>0.152</v>
       </c>
       <c r="G148" t="n">
-        <v>0.231333435469345</v>
+        <v>0.231343587294096</v>
       </c>
       <c r="H148" t="n">
         <v>0.657</v>
@@ -12425,7 +12425,7 @@
         <v>0.17</v>
       </c>
       <c r="G149" t="n">
-        <v>0.243290248120099</v>
+        <v>0.243303022279583</v>
       </c>
       <c r="H149" t="n">
         <v>0.67</v>
@@ -12502,7 +12502,7 @@
         <v>0.17</v>
       </c>
       <c r="G150" t="n">
-        <v>0.243290248120099</v>
+        <v>0.243303022279583</v>
       </c>
       <c r="H150" t="n">
         <v>0.67</v>
@@ -12891,7 +12891,7 @@
         <v>1.55</v>
       </c>
       <c r="G155" t="n">
-        <v>1.65193383019345</v>
+        <v>1.64877657711066</v>
       </c>
       <c r="H155" t="n">
         <v>3.9</v>
@@ -12969,10 +12969,10 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.00434</v>
+        <v>0.00448</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0059288254000705</v>
+        <v>0.0059644700291997</v>
       </c>
       <c r="H156" t="n">
         <v>0.047</v>
@@ -12983,7 +12983,7 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>0.00423</v>
+        <v>0.00437</v>
       </c>
       <c r="M156" t="n">
         <v>0.007</v>
@@ -13050,10 +13050,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.00434</v>
+        <v>0.00448</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0059288254000705</v>
+        <v>0.0059644700291997</v>
       </c>
       <c r="H157" t="n">
         <v>0.047</v>
@@ -13064,7 +13064,7 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>0.00423</v>
+        <v>0.00437</v>
       </c>
       <c r="M157" t="n">
         <v>0.007</v>
@@ -13134,13 +13134,13 @@
         <v>330</v>
       </c>
       <c r="G158" t="n">
-        <v>1132.26133412917</v>
+        <v>1063.87519917396</v>
       </c>
       <c r="H158" t="n">
-        <v>11187.5445238519</v>
+        <v>9078.41925141484</v>
       </c>
       <c r="I158" t="n">
-        <v>8475.093419999999</v>
+        <v>7768.82507</v>
       </c>
       <c r="J158" t="n">
         <v>27.1186440677966</v>
@@ -13219,13 +13219,13 @@
         <v>330</v>
       </c>
       <c r="G159" t="n">
-        <v>1132.26133412917</v>
+        <v>1063.87519917396</v>
       </c>
       <c r="H159" t="n">
-        <v>11187.5445238519</v>
+        <v>9078.41925141484</v>
       </c>
       <c r="I159" t="n">
-        <v>8475.093419999999</v>
+        <v>7768.82507</v>
       </c>
       <c r="J159" t="n">
         <v>27.1186440677966</v>
@@ -13304,13 +13304,13 @@
         <v>330</v>
       </c>
       <c r="G160" t="n">
-        <v>1132.26133412917</v>
+        <v>1063.87519917396</v>
       </c>
       <c r="H160" t="n">
-        <v>11187.5445238519</v>
+        <v>9078.41925141484</v>
       </c>
       <c r="I160" t="n">
-        <v>8475.093419999999</v>
+        <v>7768.82507</v>
       </c>
       <c r="J160" t="n">
         <v>27.1186440677966</v>
@@ -13389,13 +13389,13 @@
         <v>330</v>
       </c>
       <c r="G161" t="n">
-        <v>1132.26133412917</v>
+        <v>1063.87519917396</v>
       </c>
       <c r="H161" t="n">
-        <v>11187.5445238519</v>
+        <v>9078.41925141484</v>
       </c>
       <c r="I161" t="n">
-        <v>8475.093419999999</v>
+        <v>7768.82507</v>
       </c>
       <c r="J161" t="n">
         <v>27.1186440677966</v>
@@ -13471,16 +13471,16 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.00332</v>
+        <v>0.00323</v>
       </c>
       <c r="G162" t="n">
-        <v>0.005612535237097</v>
+        <v>0.005575963703984</v>
       </c>
       <c r="H162" t="n">
         <v>0.0477388325572529</v>
       </c>
       <c r="I162" t="n">
-        <v>0.01372</v>
+        <v>0.01368</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -13491,7 +13491,7 @@
         <v>0.00877</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0125</v>
+        <v>0.01236</v>
       </c>
       <c r="O162" t="n">
         <v>1828591</v>
@@ -13552,16 +13552,16 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.00332</v>
+        <v>0.00323</v>
       </c>
       <c r="G163" t="n">
-        <v>0.005612535237097</v>
+        <v>0.005575963703984</v>
       </c>
       <c r="H163" t="n">
         <v>0.0477388325572529</v>
       </c>
       <c r="I163" t="n">
-        <v>0.01372</v>
+        <v>0.01368</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -13572,7 +13572,7 @@
         <v>0.00877</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0125</v>
+        <v>0.01236</v>
       </c>
       <c r="O163" t="n">
         <v>1828591</v>
@@ -13636,7 +13636,7 @@
         <v>0.161</v>
       </c>
       <c r="G164" t="n">
-        <v>0.216904257413745</v>
+        <v>0.216908580463753</v>
       </c>
       <c r="H164" t="n">
         <v>0.657</v>
@@ -13717,7 +13717,7 @@
         <v>0.161</v>
       </c>
       <c r="G165" t="n">
-        <v>0.216904257413745</v>
+        <v>0.216908580463753</v>
       </c>
       <c r="H165" t="n">
         <v>0.657</v>
@@ -13794,7 +13794,7 @@
         <v>0.17</v>
       </c>
       <c r="G166" t="n">
-        <v>0.229635068985884</v>
+        <v>0.229637589499335</v>
       </c>
       <c r="H166" t="n">
         <v>0.67</v>
@@ -13871,7 +13871,7 @@
         <v>0.17</v>
       </c>
       <c r="G167" t="n">
-        <v>0.229635068985884</v>
+        <v>0.229637589499335</v>
       </c>
       <c r="H167" t="n">
         <v>0.67</v>
@@ -14257,10 +14257,10 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1.585</v>
+        <v>1.53136</v>
       </c>
       <c r="G172" t="n">
-        <v>1.71595243041043</v>
+        <v>1.70364222202332</v>
       </c>
       <c r="H172" t="n">
         <v>4.9</v>
@@ -14341,7 +14341,7 @@
         <v>0.005</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0066114460156001</v>
+        <v>0.0066345337984493</v>
       </c>
       <c r="H173" t="n">
         <v>0.047</v>
@@ -14352,7 +14352,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
-        <v>0.00467</v>
+        <v>0.00474</v>
       </c>
       <c r="M173" t="n">
         <v>0.008999999999999999</v>
@@ -14422,7 +14422,7 @@
         <v>0.005</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0066114460156001</v>
+        <v>0.0066345337984493</v>
       </c>
       <c r="H174" t="n">
         <v>0.047</v>
@@ -14433,7 +14433,7 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
-        <v>0.00467</v>
+        <v>0.00474</v>
       </c>
       <c r="M174" t="n">
         <v>0.008999999999999999</v>
@@ -14503,13 +14503,13 @@
         <v>380</v>
       </c>
       <c r="G175" t="n">
-        <v>1361.87310739843</v>
+        <v>1293.48174465341</v>
       </c>
       <c r="H175" t="n">
-        <v>11187.5445238519</v>
+        <v>9678</v>
       </c>
       <c r="I175" t="n">
-        <v>8889.37415</v>
+        <v>8182.64177</v>
       </c>
       <c r="J175" t="n">
         <v>32.2033898305085</v>
@@ -14524,7 +14524,7 @@
         <v>2089.3</v>
       </c>
       <c r="N175" t="n">
-        <v>7271.02745</v>
+        <v>6897.89512</v>
       </c>
       <c r="O175" t="n">
         <v>1828591</v>
@@ -14588,13 +14588,13 @@
         <v>380</v>
       </c>
       <c r="G176" t="n">
-        <v>1361.87310739843</v>
+        <v>1293.48174465341</v>
       </c>
       <c r="H176" t="n">
-        <v>11187.5445238519</v>
+        <v>9678</v>
       </c>
       <c r="I176" t="n">
-        <v>8889.37415</v>
+        <v>8182.64177</v>
       </c>
       <c r="J176" t="n">
         <v>32.2033898305085</v>
@@ -14609,7 +14609,7 @@
         <v>2089.3</v>
       </c>
       <c r="N176" t="n">
-        <v>7271.02745</v>
+        <v>6897.89512</v>
       </c>
       <c r="O176" t="n">
         <v>1828591</v>
@@ -14673,13 +14673,13 @@
         <v>380</v>
       </c>
       <c r="G177" t="n">
-        <v>1361.87310739843</v>
+        <v>1293.48174465341</v>
       </c>
       <c r="H177" t="n">
-        <v>11187.5445238519</v>
+        <v>9678</v>
       </c>
       <c r="I177" t="n">
-        <v>8889.37415</v>
+        <v>8182.64177</v>
       </c>
       <c r="J177" t="n">
         <v>32.2033898305085</v>
@@ -14694,7 +14694,7 @@
         <v>2089.3</v>
       </c>
       <c r="N177" t="n">
-        <v>7271.02745</v>
+        <v>6897.89512</v>
       </c>
       <c r="O177" t="n">
         <v>1828591</v>
@@ -14758,13 +14758,13 @@
         <v>380</v>
       </c>
       <c r="G178" t="n">
-        <v>1361.87310739843</v>
+        <v>1293.48174465341</v>
       </c>
       <c r="H178" t="n">
-        <v>11187.5445238519</v>
+        <v>9678</v>
       </c>
       <c r="I178" t="n">
-        <v>8889.37415</v>
+        <v>8182.64177</v>
       </c>
       <c r="J178" t="n">
         <v>32.2033898305085</v>
@@ -14779,7 +14779,7 @@
         <v>2089.3</v>
       </c>
       <c r="N178" t="n">
-        <v>7271.02745</v>
+        <v>6897.89512</v>
       </c>
       <c r="O178" t="n">
         <v>1828591</v>
@@ -14843,7 +14843,7 @@
         <v>0.00443</v>
       </c>
       <c r="G179" t="n">
-        <v>0.008791895977807799</v>
+        <v>0.008766640197014701</v>
       </c>
       <c r="H179" t="n">
         <v>0.130696314162945</v>
@@ -14854,7 +14854,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
-        <v>0.00522</v>
+        <v>0.00507</v>
       </c>
       <c r="M179" t="n">
         <v>0.00988</v>
@@ -14924,7 +14924,7 @@
         <v>0.00443</v>
       </c>
       <c r="G180" t="n">
-        <v>0.008791895977807799</v>
+        <v>0.008766640197014701</v>
       </c>
       <c r="H180" t="n">
         <v>0.130696314162945</v>
@@ -14935,7 +14935,7 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>0.00522</v>
+        <v>0.00507</v>
       </c>
       <c r="M180" t="n">
         <v>0.00988</v>
@@ -15005,7 +15005,7 @@
         <v>0.152</v>
       </c>
       <c r="G181" t="n">
-        <v>0.224311037074762</v>
+        <v>0.22431536012477</v>
       </c>
       <c r="H181" t="n">
         <v>0.766</v>
@@ -15086,7 +15086,7 @@
         <v>0.152</v>
       </c>
       <c r="G182" t="n">
-        <v>0.224311037074762</v>
+        <v>0.22431536012477</v>
       </c>
       <c r="H182" t="n">
         <v>0.766</v>
@@ -15163,7 +15163,7 @@
         <v>0.17</v>
       </c>
       <c r="G183" t="n">
-        <v>0.242007950341816</v>
+        <v>0.242010470855267</v>
       </c>
       <c r="H183" t="n">
         <v>0.78</v>
@@ -15240,7 +15240,7 @@
         <v>0.17</v>
       </c>
       <c r="G184" t="n">
-        <v>0.242007950341816</v>
+        <v>0.242010470855267</v>
       </c>
       <c r="H184" t="n">
         <v>0.78</v>
@@ -15599,6 +15599,1375 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>1.51271</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.67814844420576</v>
+      </c>
+      <c r="H189" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M189" t="n">
+        <v>3.0675</v>
+      </c>
+      <c r="N189" t="n">
+        <v>3.573</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0058024872821694</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.01178</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.0058024872821694</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.01178</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>380</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1192.29456312711</v>
+      </c>
+      <c r="H192" t="n">
+        <v>9678</v>
+      </c>
+      <c r="I192" t="n">
+        <v>8023.42313</v>
+      </c>
+      <c r="J192" t="n">
+        <v>30.5084745762712</v>
+      </c>
+      <c r="K192" t="n">
+        <v>54.2372881355932</v>
+      </c>
+      <c r="L192" t="n">
+        <v>335</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1718.3</v>
+      </c>
+      <c r="N192" t="n">
+        <v>4399.9</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>380</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1192.29456312711</v>
+      </c>
+      <c r="H193" t="n">
+        <v>9678</v>
+      </c>
+      <c r="I193" t="n">
+        <v>8023.42313</v>
+      </c>
+      <c r="J193" t="n">
+        <v>30.5084745762712</v>
+      </c>
+      <c r="K193" t="n">
+        <v>54.2372881355932</v>
+      </c>
+      <c r="L193" t="n">
+        <v>335</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1718.3</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4399.9</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>380</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1192.29456312711</v>
+      </c>
+      <c r="H194" t="n">
+        <v>9678</v>
+      </c>
+      <c r="I194" t="n">
+        <v>8023.42313</v>
+      </c>
+      <c r="J194" t="n">
+        <v>30.5084745762712</v>
+      </c>
+      <c r="K194" t="n">
+        <v>54.2372881355932</v>
+      </c>
+      <c r="L194" t="n">
+        <v>335</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1718.3</v>
+      </c>
+      <c r="N194" t="n">
+        <v>4399.9</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>380</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1192.29456312711</v>
+      </c>
+      <c r="H195" t="n">
+        <v>9678</v>
+      </c>
+      <c r="I195" t="n">
+        <v>8023.42313</v>
+      </c>
+      <c r="J195" t="n">
+        <v>30.5084745762712</v>
+      </c>
+      <c r="K195" t="n">
+        <v>54.2372881355932</v>
+      </c>
+      <c r="L195" t="n">
+        <v>335</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1718.3</v>
+      </c>
+      <c r="N195" t="n">
+        <v>4399.9</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.00498</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.0075447099634858</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.130696314162945</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.01359</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.00507</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.009509999999999999</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.01207</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.00498</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0075447099634858</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.130696314162945</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.01359</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.00507</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.009509999999999999</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.01207</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.219518749955279</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.71145</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.59558</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.219518749955279</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.71145</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.59558</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.23635184691676</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.4594</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.6056</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.23635184691676</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.4594</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.6056</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.454406779661017</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.7847</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.454406779661017</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.7847</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.035135593220339</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.1346</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.05347</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.08992</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Makakahi at u/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.035135593220339</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.1346</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.05347</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.08992</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1828591</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5496386</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MakakahiatusEketahunaSTP_dd8501cb18.xlsx
+++ b/state_results/Rivers/MakakahiatusEketahunaSTP_dd8501cb18.xlsx
@@ -6289,10 +6289,10 @@
         <v>153</v>
       </c>
       <c r="G73" t="n">
-        <v>548.773544026175</v>
+        <v>556.365388047935</v>
       </c>
       <c r="H73" t="n">
-        <v>7310.41264157052</v>
+        <v>7765.92328287613</v>
       </c>
       <c r="I73" t="n">
         <v>3427</v>
@@ -6374,10 +6374,10 @@
         <v>153</v>
       </c>
       <c r="G74" t="n">
-        <v>548.773544026175</v>
+        <v>556.365388047935</v>
       </c>
       <c r="H74" t="n">
-        <v>7310.41264157052</v>
+        <v>7765.92328287613</v>
       </c>
       <c r="I74" t="n">
         <v>3427</v>
@@ -6459,10 +6459,10 @@
         <v>153</v>
       </c>
       <c r="G75" t="n">
-        <v>548.773544026175</v>
+        <v>556.365388047935</v>
       </c>
       <c r="H75" t="n">
-        <v>7310.41264157052</v>
+        <v>7765.92328287613</v>
       </c>
       <c r="I75" t="n">
         <v>3427</v>
@@ -6544,10 +6544,10 @@
         <v>153</v>
       </c>
       <c r="G76" t="n">
-        <v>548.773544026175</v>
+        <v>556.365388047935</v>
       </c>
       <c r="H76" t="n">
-        <v>7310.41264157052</v>
+        <v>7765.92328287613</v>
       </c>
       <c r="I76" t="n">
         <v>3427</v>
@@ -7658,10 +7658,10 @@
         <v>169</v>
       </c>
       <c r="G90" t="n">
-        <v>498.490210692842</v>
+        <v>506.082054714602</v>
       </c>
       <c r="H90" t="n">
-        <v>7310.41264157052</v>
+        <v>7765.92328287613</v>
       </c>
       <c r="I90" t="n">
         <v>1750</v>
@@ -7743,10 +7743,10 @@
         <v>169</v>
       </c>
       <c r="G91" t="n">
-        <v>498.490210692842</v>
+        <v>506.082054714602</v>
       </c>
       <c r="H91" t="n">
-        <v>7310.41264157052</v>
+        <v>7765.92328287613</v>
       </c>
       <c r="I91" t="n">
         <v>1750</v>
@@ -7828,10 +7828,10 @@
         <v>169</v>
       </c>
       <c r="G92" t="n">
-        <v>498.490210692842</v>
+        <v>506.082054714602</v>
       </c>
       <c r="H92" t="n">
-        <v>7310.41264157052</v>
+        <v>7765.92328287613</v>
       </c>
       <c r="I92" t="n">
         <v>1750</v>
@@ -7913,10 +7913,10 @@
         <v>169</v>
       </c>
       <c r="G93" t="n">
-        <v>498.490210692842</v>
+        <v>506.082054714602</v>
       </c>
       <c r="H93" t="n">
-        <v>7310.41264157052</v>
+        <v>7765.92328287613</v>
       </c>
       <c r="I93" t="n">
         <v>1750</v>
@@ -9027,10 +9027,10 @@
         <v>225</v>
       </c>
       <c r="G107" t="n">
-        <v>726.407605860369</v>
+        <v>731.986932701132</v>
       </c>
       <c r="H107" t="n">
-        <v>7928.04371005164</v>
+        <v>7807.29267919177</v>
       </c>
       <c r="I107" t="n">
         <v>3977</v>
@@ -9112,10 +9112,10 @@
         <v>225</v>
       </c>
       <c r="G108" t="n">
-        <v>726.407605860369</v>
+        <v>731.986932701132</v>
       </c>
       <c r="H108" t="n">
-        <v>7928.04371005164</v>
+        <v>7807.29267919177</v>
       </c>
       <c r="I108" t="n">
         <v>3977</v>
@@ -9197,10 +9197,10 @@
         <v>225</v>
       </c>
       <c r="G109" t="n">
-        <v>726.407605860369</v>
+        <v>731.986932701132</v>
       </c>
       <c r="H109" t="n">
-        <v>7928.04371005164</v>
+        <v>7807.29267919177</v>
       </c>
       <c r="I109" t="n">
         <v>3977</v>
@@ -9282,10 +9282,10 @@
         <v>225</v>
       </c>
       <c r="G110" t="n">
-        <v>726.407605860369</v>
+        <v>731.986932701132</v>
       </c>
       <c r="H110" t="n">
-        <v>7928.04371005164</v>
+        <v>7807.29267919177</v>
       </c>
       <c r="I110" t="n">
         <v>3977</v>
@@ -10396,10 +10396,10 @@
         <v>225</v>
       </c>
       <c r="G124" t="n">
-        <v>769.007605860369</v>
+        <v>774.586932701132</v>
       </c>
       <c r="H124" t="n">
-        <v>7928.04371005164</v>
+        <v>7807.29267919177</v>
       </c>
       <c r="I124" t="n">
         <v>4127</v>
@@ -10481,10 +10481,10 @@
         <v>225</v>
       </c>
       <c r="G125" t="n">
-        <v>769.007605860369</v>
+        <v>774.586932701132</v>
       </c>
       <c r="H125" t="n">
-        <v>7928.04371005164</v>
+        <v>7807.29267919177</v>
       </c>
       <c r="I125" t="n">
         <v>4127</v>
@@ -10566,10 +10566,10 @@
         <v>225</v>
       </c>
       <c r="G126" t="n">
-        <v>769.007605860369</v>
+        <v>774.586932701132</v>
       </c>
       <c r="H126" t="n">
-        <v>7928.04371005164</v>
+        <v>7807.29267919177</v>
       </c>
       <c r="I126" t="n">
         <v>4127</v>
@@ -10651,10 +10651,10 @@
         <v>225</v>
       </c>
       <c r="G127" t="n">
-        <v>769.007605860369</v>
+        <v>774.586932701132</v>
       </c>
       <c r="H127" t="n">
-        <v>7928.04371005164</v>
+        <v>7807.29267919177</v>
       </c>
       <c r="I127" t="n">
         <v>4127</v>
@@ -11765,10 +11765,10 @@
         <v>250</v>
       </c>
       <c r="G141" t="n">
-        <v>699.990785620715</v>
+        <v>705.6646773231849</v>
       </c>
       <c r="H141" t="n">
-        <v>7928.04371005164</v>
+        <v>7807.29267919177</v>
       </c>
       <c r="I141" t="n">
         <v>2465</v>
@@ -11850,10 +11850,10 @@
         <v>250</v>
       </c>
       <c r="G142" t="n">
-        <v>699.990785620715</v>
+        <v>705.6646773231849</v>
       </c>
       <c r="H142" t="n">
-        <v>7928.04371005164</v>
+        <v>7807.29267919177</v>
       </c>
       <c r="I142" t="n">
         <v>2465</v>
@@ -11935,10 +11935,10 @@
         <v>250</v>
       </c>
       <c r="G143" t="n">
-        <v>699.990785620715</v>
+        <v>705.6646773231849</v>
       </c>
       <c r="H143" t="n">
-        <v>7928.04371005164</v>
+        <v>7807.29267919177</v>
       </c>
       <c r="I143" t="n">
         <v>2465</v>
@@ -12020,10 +12020,10 @@
         <v>250</v>
       </c>
       <c r="G144" t="n">
-        <v>699.990785620715</v>
+        <v>705.6646773231849</v>
       </c>
       <c r="H144" t="n">
-        <v>7928.04371005164</v>
+        <v>7807.29267919177</v>
       </c>
       <c r="I144" t="n">
         <v>2465</v>
@@ -12891,7 +12891,7 @@
         <v>1.55</v>
       </c>
       <c r="G155" t="n">
-        <v>1.64877657711066</v>
+        <v>1.64489480485172</v>
       </c>
       <c r="H155" t="n">
         <v>3.9</v>
@@ -13134,13 +13134,13 @@
         <v>330</v>
       </c>
       <c r="G158" t="n">
-        <v>1063.87519917396</v>
+        <v>1133.04381311143</v>
       </c>
       <c r="H158" t="n">
-        <v>9078.41925141484</v>
+        <v>11937.2655383084</v>
       </c>
       <c r="I158" t="n">
-        <v>7768.82507</v>
+        <v>8054.99665</v>
       </c>
       <c r="J158" t="n">
         <v>27.1186440677966</v>
@@ -13219,13 +13219,13 @@
         <v>330</v>
       </c>
       <c r="G159" t="n">
-        <v>1063.87519917396</v>
+        <v>1133.04381311143</v>
       </c>
       <c r="H159" t="n">
-        <v>9078.41925141484</v>
+        <v>11937.2655383084</v>
       </c>
       <c r="I159" t="n">
-        <v>7768.82507</v>
+        <v>8054.99665</v>
       </c>
       <c r="J159" t="n">
         <v>27.1186440677966</v>
@@ -13304,13 +13304,13 @@
         <v>330</v>
       </c>
       <c r="G160" t="n">
-        <v>1063.87519917396</v>
+        <v>1133.04381311143</v>
       </c>
       <c r="H160" t="n">
-        <v>9078.41925141484</v>
+        <v>11937.2655383084</v>
       </c>
       <c r="I160" t="n">
-        <v>7768.82507</v>
+        <v>8054.99665</v>
       </c>
       <c r="J160" t="n">
         <v>27.1186440677966</v>
@@ -13389,13 +13389,13 @@
         <v>330</v>
       </c>
       <c r="G161" t="n">
-        <v>1063.87519917396</v>
+        <v>1133.04381311143</v>
       </c>
       <c r="H161" t="n">
-        <v>9078.41925141484</v>
+        <v>11937.2655383084</v>
       </c>
       <c r="I161" t="n">
-        <v>7768.82507</v>
+        <v>8054.99665</v>
       </c>
       <c r="J161" t="n">
         <v>27.1186440677966</v>
@@ -14257,10 +14257,10 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1.53136</v>
+        <v>1.55</v>
       </c>
       <c r="G172" t="n">
-        <v>1.70364222202332</v>
+        <v>1.73014830794186</v>
       </c>
       <c r="H172" t="n">
         <v>4.9</v>
@@ -14503,13 +14503,13 @@
         <v>380</v>
       </c>
       <c r="G175" t="n">
-        <v>1293.48174465341</v>
+        <v>1362.65035859088</v>
       </c>
       <c r="H175" t="n">
-        <v>9678</v>
+        <v>11937.2655383084</v>
       </c>
       <c r="I175" t="n">
-        <v>8182.64177</v>
+        <v>8693.648359999999</v>
       </c>
       <c r="J175" t="n">
         <v>32.2033898305085</v>
@@ -14524,7 +14524,7 @@
         <v>2089.3</v>
       </c>
       <c r="N175" t="n">
-        <v>6897.89512</v>
+        <v>7079.68829</v>
       </c>
       <c r="O175" t="n">
         <v>1828591</v>
@@ -14588,13 +14588,13 @@
         <v>380</v>
       </c>
       <c r="G176" t="n">
-        <v>1293.48174465341</v>
+        <v>1362.65035859088</v>
       </c>
       <c r="H176" t="n">
-        <v>9678</v>
+        <v>11937.2655383084</v>
       </c>
       <c r="I176" t="n">
-        <v>8182.64177</v>
+        <v>8693.648359999999</v>
       </c>
       <c r="J176" t="n">
         <v>32.2033898305085</v>
@@ -14609,7 +14609,7 @@
         <v>2089.3</v>
       </c>
       <c r="N176" t="n">
-        <v>6897.89512</v>
+        <v>7079.68829</v>
       </c>
       <c r="O176" t="n">
         <v>1828591</v>
@@ -14673,13 +14673,13 @@
         <v>380</v>
       </c>
       <c r="G177" t="n">
-        <v>1293.48174465341</v>
+        <v>1362.65035859088</v>
       </c>
       <c r="H177" t="n">
-        <v>9678</v>
+        <v>11937.2655383084</v>
       </c>
       <c r="I177" t="n">
-        <v>8182.64177</v>
+        <v>8693.648359999999</v>
       </c>
       <c r="J177" t="n">
         <v>32.2033898305085</v>
@@ -14694,7 +14694,7 @@
         <v>2089.3</v>
       </c>
       <c r="N177" t="n">
-        <v>6897.89512</v>
+        <v>7079.68829</v>
       </c>
       <c r="O177" t="n">
         <v>1828591</v>
@@ -14758,13 +14758,13 @@
         <v>380</v>
       </c>
       <c r="G178" t="n">
-        <v>1293.48174465341</v>
+        <v>1362.65035859088</v>
       </c>
       <c r="H178" t="n">
-        <v>9678</v>
+        <v>11937.2655383084</v>
       </c>
       <c r="I178" t="n">
-        <v>8182.64177</v>
+        <v>8693.648359999999</v>
       </c>
       <c r="J178" t="n">
         <v>32.2033898305085</v>
@@ -14779,7 +14779,7 @@
         <v>2089.3</v>
       </c>
       <c r="N178" t="n">
-        <v>6897.89512</v>
+        <v>7079.68829</v>
       </c>
       <c r="O178" t="n">
         <v>1828591</v>
@@ -15626,10 +15626,10 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1.51271</v>
+        <v>1.55</v>
       </c>
       <c r="G189" t="n">
-        <v>1.67814844420576</v>
+        <v>1.70995574730801</v>
       </c>
       <c r="H189" t="n">
         <v>4.9</v>
@@ -15872,13 +15872,13 @@
         <v>380</v>
       </c>
       <c r="G192" t="n">
-        <v>1192.29456312711</v>
+        <v>1263.50980470627</v>
       </c>
       <c r="H192" t="n">
-        <v>9678</v>
+        <v>11937.2655383084</v>
       </c>
       <c r="I192" t="n">
-        <v>8023.42313</v>
+        <v>8693.648359999999</v>
       </c>
       <c r="J192" t="n">
         <v>30.5084745762712</v>
@@ -15957,13 +15957,13 @@
         <v>380</v>
       </c>
       <c r="G193" t="n">
-        <v>1192.29456312711</v>
+        <v>1263.50980470627</v>
       </c>
       <c r="H193" t="n">
-        <v>9678</v>
+        <v>11937.2655383084</v>
       </c>
       <c r="I193" t="n">
-        <v>8023.42313</v>
+        <v>8693.648359999999</v>
       </c>
       <c r="J193" t="n">
         <v>30.5084745762712</v>
@@ -16042,13 +16042,13 @@
         <v>380</v>
       </c>
       <c r="G194" t="n">
-        <v>1192.29456312711</v>
+        <v>1263.50980470627</v>
       </c>
       <c r="H194" t="n">
-        <v>9678</v>
+        <v>11937.2655383084</v>
       </c>
       <c r="I194" t="n">
-        <v>8023.42313</v>
+        <v>8693.648359999999</v>
       </c>
       <c r="J194" t="n">
         <v>30.5084745762712</v>
@@ -16127,13 +16127,13 @@
         <v>380</v>
       </c>
       <c r="G195" t="n">
-        <v>1192.29456312711</v>
+        <v>1263.50980470627</v>
       </c>
       <c r="H195" t="n">
-        <v>9678</v>
+        <v>11937.2655383084</v>
       </c>
       <c r="I195" t="n">
-        <v>8023.42313</v>
+        <v>8693.648359999999</v>
       </c>
       <c r="J195" t="n">
         <v>30.5084745762712</v>
